--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业资产.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1575 +623,1353 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.53267</v>
+        <v>784.8</v>
       </c>
       <c r="C2" t="n">
-        <v>114.32042</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>267.61785</v>
+        <v>283.1</v>
       </c>
       <c r="E2" t="n">
-        <v>3888.63408</v>
+        <v>7576.4</v>
       </c>
       <c r="F2" t="n">
-        <v>15.13042</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>22.06524</v>
+        <v>102.7</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>663.845</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>2017.2</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>2.5615</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
-        <v>2805.94558</v>
+        <v>5955.3</v>
       </c>
       <c r="M2" t="n">
-        <v>15.31824</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>1152.95979</v>
+        <v>1522.6</v>
       </c>
       <c r="O2" t="n">
-        <v>64.05799</v>
+        <v>120.6</v>
       </c>
       <c r="P2" t="n">
-        <v>27.60246</v>
+        <v>14.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>467.2599</v>
+        <v>645.6</v>
       </c>
       <c r="R2" t="n">
-        <v>2.93922</v>
+        <v>16</v>
       </c>
       <c r="S2" t="n">
-        <v>82.38240999999999</v>
+        <v>257.6</v>
       </c>
       <c r="T2" t="n">
-        <v>3713.03617</v>
+        <v>6688.9</v>
       </c>
       <c r="U2" t="n">
-        <v>727.90299</v>
+        <v>2137.8</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>133.11484</v>
+        <v>119.4</v>
       </c>
       <c r="X2" t="n">
-        <v>425.4341</v>
+        <v>514.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>615.4286</v>
+        <v>975.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.02253</v>
+        <v>15.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.85713</v>
+        <v>326.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.28666</v>
+        <v>1714.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.69158</v>
+        <v>61.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>335.74694</v>
+        <v>1283.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>79.51651</v>
+        <v>269.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>34.33163</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>48.83716</v>
+        <v>31.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>51.8196</v>
+        <v>49.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>190.52908</v>
+        <v>289.3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>158.47988</v>
+        <v>145.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.35496</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>568.4</v>
+        <v>861.4</v>
       </c>
       <c r="C3" t="n">
-        <v>122.7</v>
+        <v>81.8</v>
       </c>
       <c r="D3" t="n">
-        <v>319.4</v>
+        <v>291.1</v>
       </c>
       <c r="E3" t="n">
-        <v>6532.1</v>
+        <v>8442.299999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>180.4</v>
       </c>
       <c r="G3" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="I3" t="n">
-        <v>1519.2</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>2478.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4975</v>
+        <v>6704.9</v>
       </c>
       <c r="M3" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="N3" t="n">
-        <v>1575.4</v>
+        <v>1552.4</v>
       </c>
       <c r="O3" t="n">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P3" t="n">
-        <v>15.8</v>
+        <v>13.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>693</v>
+        <v>682.2</v>
       </c>
       <c r="R3" t="n">
-        <v>17.9</v>
+        <v>64.3</v>
       </c>
       <c r="S3" t="n">
-        <v>233</v>
+        <v>240.1</v>
       </c>
       <c r="T3" t="n">
-        <v>5869.4</v>
+        <v>7462.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1626.3</v>
+        <v>2615.5</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>123.4</v>
+        <v>129.2</v>
       </c>
       <c r="X3" t="n">
-        <v>465.7</v>
+        <v>551.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>864.2</v>
+        <v>1055.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.2</v>
+        <v>27.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.8</v>
+        <v>343.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1269.2</v>
+        <v>1788.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.1</v>
+        <v>57.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>944.4</v>
+        <v>1368.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>203</v>
+        <v>232.3</v>
       </c>
       <c r="AF3" t="n">
-        <v>73.59999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="AG3" t="n">
-        <v>31.2</v>
+        <v>25.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>51.6</v>
+        <v>56.1</v>
       </c>
       <c r="AI3" t="n">
-        <v>235.9</v>
+        <v>342.2</v>
       </c>
       <c r="AJ3" t="n">
-        <v>154.4</v>
+        <v>144.7</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658</v>
+        <v>968.37503</v>
       </c>
       <c r="C4" t="n">
-        <v>102.3</v>
+        <v>89.42943</v>
       </c>
       <c r="D4" t="n">
-        <v>260.7</v>
+        <v>305.46198</v>
       </c>
       <c r="E4" t="n">
-        <v>6723.9</v>
+        <v>9310.108459999999</v>
       </c>
       <c r="F4" t="n">
-        <v>53.9</v>
+        <v>242.90758</v>
       </c>
       <c r="G4" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>125.35672</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.702500000000001</v>
+      </c>
       <c r="I4" t="n">
-        <v>1614.2</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>2947.79095</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.75125</v>
+      </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>3.08326</v>
       </c>
       <c r="L4" t="n">
-        <v>5152.7</v>
+        <v>7533.4167</v>
       </c>
       <c r="M4" t="n">
-        <v>9.4</v>
+        <v>6.12984</v>
       </c>
       <c r="N4" t="n">
-        <v>1487.3</v>
+        <v>1653.05905</v>
       </c>
       <c r="O4" t="n">
-        <v>114.5</v>
+        <v>148.4774</v>
       </c>
       <c r="P4" t="n">
-        <v>16.3</v>
+        <v>14.11419</v>
       </c>
       <c r="Q4" t="n">
-        <v>622.6</v>
+        <v>705.56186</v>
       </c>
       <c r="R4" t="n">
-        <v>13.8</v>
+        <v>33.27547</v>
       </c>
       <c r="S4" t="n">
-        <v>245.7</v>
+        <v>268.69248</v>
       </c>
       <c r="T4" t="n">
-        <v>5978</v>
+        <v>8216.37671</v>
       </c>
       <c r="U4" t="n">
-        <v>1728.7</v>
+        <v>3096.26835</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>137.3</v>
+        <v>139.23736</v>
       </c>
       <c r="X4" t="n">
-        <v>504.6</v>
+        <v>555.74726</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.6</v>
+        <v>1071.1299</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>36.94463</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.4</v>
+        <v>336.4494</v>
       </c>
       <c r="AB4" t="n">
-        <v>1398.7</v>
+        <v>1988.27072</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.5</v>
+        <v>60.41957</v>
       </c>
       <c r="AD4" t="n">
-        <v>1038</v>
+        <v>1533.69093</v>
       </c>
       <c r="AE4" t="n">
-        <v>223.2</v>
+        <v>254.49746</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>139.66276</v>
       </c>
       <c r="AG4" t="n">
-        <v>30.3</v>
+        <v>26.41283</v>
       </c>
       <c r="AH4" t="n">
-        <v>49.2</v>
+        <v>49.8829</v>
       </c>
       <c r="AI4" t="n">
-        <v>258.3</v>
+        <v>320.5491</v>
       </c>
       <c r="AJ4" t="n">
-        <v>146.2</v>
+        <v>156.06617</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.2</v>
+        <v>3.08554</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>784.8</v>
+        <v>1223.9235</v>
       </c>
       <c r="C5" t="n">
-        <v>88.90000000000001</v>
+        <v>84.95987</v>
       </c>
       <c r="D5" t="n">
-        <v>283.1</v>
+        <v>327.16979</v>
       </c>
       <c r="E5" t="n">
-        <v>7576.4</v>
+        <v>10368.79374</v>
       </c>
       <c r="F5" t="n">
-        <v>64.59999999999999</v>
+        <v>44.61414</v>
       </c>
       <c r="G5" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>206.14495</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.63784</v>
+      </c>
       <c r="I5" t="n">
-        <v>2017.2</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>3767.05524</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.2526</v>
+      </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>0.23407</v>
       </c>
       <c r="L5" t="n">
-        <v>5955.3</v>
+        <v>8407.06337</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>3.49308</v>
       </c>
       <c r="N5" t="n">
-        <v>1522.6</v>
+        <v>1254.8187</v>
       </c>
       <c r="O5" t="n">
-        <v>120.6</v>
+        <v>346.58538</v>
       </c>
       <c r="P5" t="n">
-        <v>14.6</v>
+        <v>7.7257</v>
       </c>
       <c r="Q5" t="n">
-        <v>645.6</v>
+        <v>714.31181</v>
       </c>
       <c r="R5" t="n">
-        <v>16</v>
+        <v>32.73356</v>
       </c>
       <c r="S5" t="n">
-        <v>257.6</v>
+        <v>266.81075</v>
       </c>
       <c r="T5" t="n">
-        <v>6688.9</v>
+        <v>8938.72529</v>
       </c>
       <c r="U5" t="n">
-        <v>2137.8</v>
+        <v>4113.64062</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>119.4</v>
+        <v>123.76187</v>
       </c>
       <c r="X5" t="n">
-        <v>514.8</v>
+        <v>580.4776900000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.5</v>
+        <v>1247.41856</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.3</v>
+        <v>37.38197</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.1</v>
+        <v>498.54443</v>
       </c>
       <c r="AB5" t="n">
-        <v>1714.5</v>
+        <v>2413.65987</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.6</v>
+        <v>31.58753</v>
       </c>
       <c r="AD5" t="n">
-        <v>1283.5</v>
+        <v>2057.20754</v>
       </c>
       <c r="AE5" t="n">
-        <v>269.5</v>
+        <v>162.85088</v>
       </c>
       <c r="AF5" t="n">
-        <v>99.90000000000001</v>
+        <v>162.01392</v>
       </c>
       <c r="AG5" t="n">
-        <v>31.3</v>
+        <v>14.19428</v>
       </c>
       <c r="AH5" t="n">
-        <v>49.8</v>
+        <v>25.85037</v>
       </c>
       <c r="AI5" t="n">
-        <v>289.3</v>
+        <v>410.98215</v>
       </c>
       <c r="AJ5" t="n">
-        <v>145.2</v>
+        <v>129.30324</v>
       </c>
       <c r="AK5" t="n">
-        <v>3</v>
+        <v>2.74143</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861.4</v>
+        <v>1333.37241</v>
       </c>
       <c r="C6" t="n">
-        <v>81.8</v>
+        <v>64.18716999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>291.1</v>
+        <v>303.70542</v>
       </c>
       <c r="E6" t="n">
-        <v>8442.299999999999</v>
+        <v>11056.2</v>
       </c>
       <c r="F6" t="n">
-        <v>180.4</v>
+        <v>44.23083</v>
       </c>
       <c r="G6" t="n">
-        <v>118</v>
+        <v>212.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>11.06296</v>
       </c>
       <c r="I6" t="n">
-        <v>2478.5</v>
+        <v>4270.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.74976</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>0.13195</v>
       </c>
       <c r="L6" t="n">
-        <v>6704.9</v>
+        <v>8966.6</v>
       </c>
       <c r="M6" t="n">
-        <v>4.8</v>
+        <v>3.84815</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.4</v>
+        <v>1187.64838</v>
       </c>
       <c r="O6" t="n">
-        <v>137</v>
+        <v>389.02275</v>
       </c>
       <c r="P6" t="n">
-        <v>13.4</v>
+        <v>6.38132</v>
       </c>
       <c r="Q6" t="n">
-        <v>682.2</v>
+        <v>712.871</v>
       </c>
       <c r="R6" t="n">
-        <v>64.3</v>
+        <v>37.90099</v>
       </c>
       <c r="S6" t="n">
-        <v>240.1</v>
+        <v>296.01446</v>
       </c>
       <c r="T6" t="n">
-        <v>7462.9</v>
+        <v>9510.26269</v>
       </c>
       <c r="U6" t="n">
-        <v>2615.5</v>
+        <v>4659.7</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>129.2</v>
+        <v>148.48701</v>
       </c>
       <c r="X6" t="n">
-        <v>551.4</v>
+        <v>609.5259600000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>1055.2</v>
+        <v>1376.72335</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.9</v>
+        <v>35.39953</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.2</v>
+        <v>579.56109</v>
       </c>
       <c r="AB6" t="n">
-        <v>1788.4</v>
+        <v>2505.88036</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.2</v>
+        <v>31.9498</v>
       </c>
       <c r="AD6" t="n">
-        <v>1368.2</v>
+        <v>2162.17311</v>
       </c>
       <c r="AE6" t="n">
-        <v>232.3</v>
+        <v>149.27294</v>
       </c>
       <c r="AF6" t="n">
-        <v>130.7</v>
+        <v>162.48451</v>
       </c>
       <c r="AG6" t="n">
-        <v>25.2</v>
+        <v>12.35146</v>
       </c>
       <c r="AH6" t="n">
-        <v>56.1</v>
+        <v>23.86893</v>
       </c>
       <c r="AI6" t="n">
-        <v>342.2</v>
+        <v>411.3239</v>
       </c>
       <c r="AJ6" t="n">
-        <v>144.7</v>
+        <v>121.65715</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.1</v>
+        <v>1.99004</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>968.37503</v>
+        <v>1382.1329</v>
       </c>
       <c r="C7" t="n">
-        <v>89.42943</v>
+        <v>56.9895</v>
       </c>
       <c r="D7" t="n">
-        <v>305.46198</v>
+        <v>343.5255</v>
       </c>
       <c r="E7" t="n">
-        <v>9310.108459999999</v>
+        <v>11640.1634</v>
       </c>
       <c r="F7" t="n">
-        <v>242.90758</v>
+        <v>38.9321</v>
       </c>
       <c r="G7" t="n">
-        <v>125.35672</v>
+        <v>275.8089</v>
       </c>
       <c r="H7" t="n">
-        <v>8.702500000000001</v>
+        <v>9.949400000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>2947.79095</v>
+        <v>4594.1146</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75125</v>
+        <v>9.659800000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>3.08326</v>
+        <v>0.2559</v>
       </c>
       <c r="L7" t="n">
-        <v>7533.4167</v>
+        <v>9500.0784</v>
       </c>
       <c r="M7" t="n">
-        <v>6.12984</v>
+        <v>1.6184</v>
       </c>
       <c r="N7" t="n">
-        <v>1653.05905</v>
+        <v>1164.0729</v>
       </c>
       <c r="O7" t="n">
-        <v>148.4774</v>
+        <v>432.6743</v>
       </c>
       <c r="P7" t="n">
-        <v>14.11419</v>
+        <v>7.4586</v>
       </c>
       <c r="Q7" t="n">
-        <v>705.56186</v>
+        <v>721.6349</v>
       </c>
       <c r="R7" t="n">
-        <v>33.27547</v>
+        <v>37.1468</v>
       </c>
       <c r="S7" t="n">
-        <v>268.69248</v>
+        <v>274.0241</v>
       </c>
       <c r="T7" t="n">
-        <v>8216.37671</v>
+        <v>9982.2215</v>
       </c>
       <c r="U7" t="n">
-        <v>3096.26835</v>
+        <v>5026.7889</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>139.23736</v>
+        <v>144.682</v>
       </c>
       <c r="X7" t="n">
-        <v>555.74726</v>
+        <v>575.4349999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.1299</v>
+        <v>1418.4503</v>
       </c>
       <c r="Z7" t="n">
-        <v>36.94463</v>
+        <v>23.0866</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.4494</v>
+        <v>665.587</v>
       </c>
       <c r="AB7" t="n">
-        <v>1988.27072</v>
+        <v>2706.0035</v>
       </c>
       <c r="AC7" t="n">
-        <v>60.41957</v>
+        <v>31.1508</v>
       </c>
       <c r="AD7" t="n">
-        <v>1533.69093</v>
+        <v>2373.5596</v>
       </c>
       <c r="AE7" t="n">
-        <v>254.49746</v>
+        <v>144.3228</v>
       </c>
       <c r="AF7" t="n">
-        <v>139.66276</v>
+        <v>156.9704</v>
       </c>
       <c r="AG7" t="n">
-        <v>26.41283</v>
+        <v>11.0284</v>
       </c>
       <c r="AH7" t="n">
-        <v>49.8829</v>
+        <v>20.5113</v>
       </c>
       <c r="AI7" t="n">
-        <v>320.5491</v>
+        <v>427.1737</v>
       </c>
       <c r="AJ7" t="n">
-        <v>156.06617</v>
+        <v>105.5686</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.08554</v>
+        <v>1.6958</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1223.9235</v>
+        <v>1517.8404</v>
       </c>
       <c r="C8" t="n">
-        <v>84.95987</v>
+        <v>112.1253</v>
       </c>
       <c r="D8" t="n">
-        <v>327.16979</v>
+        <v>303.3783</v>
       </c>
       <c r="E8" t="n">
-        <v>10368.79374</v>
+        <v>12151.8951</v>
       </c>
       <c r="F8" t="n">
-        <v>44.61414</v>
+        <v>32.2112</v>
       </c>
       <c r="G8" t="n">
-        <v>206.14495</v>
+        <v>282.5347</v>
       </c>
       <c r="H8" t="n">
-        <v>2.63784</v>
+        <v>9.254</v>
       </c>
       <c r="I8" t="n">
-        <v>3767.05524</v>
+        <v>4865.9506</v>
       </c>
       <c r="J8" t="n">
-        <v>7.2526</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.23407</v>
-      </c>
+        <v>10.7749</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>8407.06337</v>
+        <v>9859.0524</v>
       </c>
       <c r="M8" t="n">
-        <v>3.49308</v>
+        <v>13.0208</v>
       </c>
       <c r="N8" t="n">
-        <v>1254.8187</v>
+        <v>1094.9648</v>
       </c>
       <c r="O8" t="n">
-        <v>346.58538</v>
+        <v>572.5938</v>
       </c>
       <c r="P8" t="n">
-        <v>7.7257</v>
+        <v>5.1488</v>
       </c>
       <c r="Q8" t="n">
-        <v>714.31181</v>
+        <v>745.5746</v>
       </c>
       <c r="R8" t="n">
-        <v>32.73356</v>
+        <v>37.7814</v>
       </c>
       <c r="S8" t="n">
-        <v>266.81075</v>
+        <v>283.036</v>
       </c>
       <c r="T8" t="n">
-        <v>8938.72529</v>
+        <v>10351.5202</v>
       </c>
       <c r="U8" t="n">
-        <v>4113.64062</v>
+        <v>5438.5442</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>123.76187</v>
+        <v>142.0178</v>
       </c>
       <c r="X8" t="n">
-        <v>580.4776900000001</v>
+        <v>603.4426</v>
       </c>
       <c r="Y8" t="n">
-        <v>1247.41856</v>
+        <v>1547.2685</v>
       </c>
       <c r="Z8" t="n">
-        <v>37.38197</v>
+        <v>28.3611</v>
       </c>
       <c r="AA8" t="n">
-        <v>498.54443</v>
+        <v>762.6724</v>
       </c>
       <c r="AB8" t="n">
-        <v>2413.65987</v>
+        <v>2709.9317</v>
       </c>
       <c r="AC8" t="n">
-        <v>31.58753</v>
+        <v>31.934</v>
       </c>
       <c r="AD8" t="n">
-        <v>2057.20754</v>
+        <v>2426.2436</v>
       </c>
       <c r="AE8" t="n">
-        <v>162.85088</v>
+        <v>120.9014</v>
       </c>
       <c r="AF8" t="n">
-        <v>162.01392</v>
+        <v>130.8533</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.19428</v>
+        <v>19.8509</v>
       </c>
       <c r="AH8" t="n">
-        <v>25.85037</v>
+        <v>19.0736</v>
       </c>
       <c r="AI8" t="n">
-        <v>410.98215</v>
+        <v>452.4865</v>
       </c>
       <c r="AJ8" t="n">
-        <v>129.30324</v>
+        <v>91.98990000000001</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.74143</v>
+        <v>1.6421</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1333.37241</v>
+        <v>1699.8855</v>
       </c>
       <c r="C9" t="n">
-        <v>64.18716999999999</v>
+        <v>109.407</v>
       </c>
       <c r="D9" t="n">
-        <v>303.70542</v>
+        <v>339.497</v>
       </c>
       <c r="E9" t="n">
-        <v>11056.2</v>
+        <v>12648.0581</v>
       </c>
       <c r="F9" t="n">
-        <v>44.23083</v>
+        <v>24.115</v>
       </c>
       <c r="G9" t="n">
-        <v>212.6</v>
+        <v>319.258</v>
       </c>
       <c r="H9" t="n">
-        <v>11.06296</v>
+        <v>14.473</v>
       </c>
       <c r="I9" t="n">
-        <v>4270.6</v>
+        <v>5221.776</v>
       </c>
       <c r="J9" t="n">
-        <v>3.74976</v>
+        <v>12.512</v>
       </c>
       <c r="K9" t="n">
-        <v>0.13195</v>
+        <v>0.065</v>
       </c>
       <c r="L9" t="n">
-        <v>8966.6</v>
+        <v>10397.702</v>
       </c>
       <c r="M9" t="n">
-        <v>3.84815</v>
+        <v>1.036</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.64838</v>
+        <v>1010.676</v>
       </c>
       <c r="O9" t="n">
-        <v>389.02275</v>
+        <v>660.417</v>
       </c>
       <c r="P9" t="n">
-        <v>6.38132</v>
+        <v>5.344</v>
       </c>
       <c r="Q9" t="n">
-        <v>712.871</v>
+        <v>736.51</v>
       </c>
       <c r="R9" t="n">
-        <v>37.90099</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>296.01446</v>
+        <v>264.583</v>
       </c>
       <c r="T9" t="n">
-        <v>9510.26269</v>
+        <v>10628.915</v>
       </c>
       <c r="U9" t="n">
-        <v>4659.7</v>
+        <v>5882.194</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>148.48701</v>
+        <v>106.324</v>
       </c>
       <c r="X9" t="n">
-        <v>609.5259600000001</v>
+        <v>603.484</v>
       </c>
       <c r="Y9" t="n">
-        <v>1376.72335</v>
+        <v>1513.846</v>
       </c>
       <c r="Z9" t="n">
-        <v>35.39953</v>
+        <v>33.574</v>
       </c>
       <c r="AA9" t="n">
-        <v>579.56109</v>
+        <v>757.952</v>
       </c>
       <c r="AB9" t="n">
-        <v>2505.88036</v>
+        <v>2908.311</v>
       </c>
       <c r="AC9" t="n">
-        <v>31.9498</v>
+        <v>26.249</v>
       </c>
       <c r="AD9" t="n">
-        <v>2162.17311</v>
+        <v>2656.985</v>
       </c>
       <c r="AE9" t="n">
-        <v>149.27294</v>
+        <v>106.272</v>
       </c>
       <c r="AF9" t="n">
-        <v>162.48451</v>
+        <v>118.805</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.35146</v>
+        <v>7.573</v>
       </c>
       <c r="AH9" t="n">
-        <v>23.86893</v>
+        <v>18.015</v>
       </c>
       <c r="AI9" t="n">
-        <v>411.3239</v>
+        <v>472.086</v>
       </c>
       <c r="AJ9" t="n">
-        <v>121.65715</v>
+        <v>74.733</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.99004</v>
+        <v>1.128</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1382.1329</v>
+        <v>1733.9</v>
       </c>
       <c r="C10" t="n">
-        <v>56.9895</v>
+        <v>87.7</v>
       </c>
       <c r="D10" t="n">
-        <v>343.5255</v>
+        <v>323.3</v>
       </c>
       <c r="E10" t="n">
-        <v>11640.1634</v>
+        <v>13529.5</v>
       </c>
       <c r="F10" t="n">
-        <v>38.9321</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>275.8089</v>
+        <v>296.9</v>
       </c>
       <c r="H10" t="n">
-        <v>9.949400000000001</v>
+        <v>11.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4594.1146</v>
+        <v>5296.6</v>
       </c>
       <c r="J10" t="n">
-        <v>9.659800000000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2559</v>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>9500.0784</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.6184</v>
-      </c>
+        <v>11090.5</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1164.0729</v>
+        <v>933.8</v>
       </c>
       <c r="O10" t="n">
-        <v>432.6743</v>
+        <v>666.7</v>
       </c>
       <c r="P10" t="n">
-        <v>7.4586</v>
+        <v>6.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>721.6349</v>
+        <v>869.2</v>
       </c>
       <c r="R10" t="n">
-        <v>37.1468</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>274.0241</v>
+        <v>437.1</v>
       </c>
       <c r="T10" t="n">
-        <v>9982.2215</v>
+        <v>11417</v>
       </c>
       <c r="U10" t="n">
-        <v>5026.7889</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>5963.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>81.2</v>
+      </c>
       <c r="W10" t="n">
-        <v>144.682</v>
+        <v>113</v>
       </c>
       <c r="X10" t="n">
-        <v>575.4349999999999</v>
+        <v>667.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>1418.4503</v>
+        <v>1569.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.0866</v>
+        <v>19.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>665.587</v>
+        <v>760.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2706.0035</v>
+        <v>3551.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>31.1508</v>
+        <v>25.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2373.5596</v>
+        <v>3343</v>
       </c>
       <c r="AE10" t="n">
-        <v>144.3228</v>
+        <v>101.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>156.9704</v>
+        <v>81.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.0284</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>20.5113</v>
+        <v>13.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>427.1737</v>
+        <v>550.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>105.5686</v>
+        <v>67.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.6958</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1517.8404</v>
+        <v>2269.9652</v>
       </c>
       <c r="C11" t="n">
-        <v>112.1253</v>
+        <v>72.7366</v>
       </c>
       <c r="D11" t="n">
-        <v>303.3783</v>
+        <v>362.0349</v>
       </c>
       <c r="E11" t="n">
-        <v>12151.8951</v>
+        <v>14771.0902</v>
       </c>
       <c r="F11" t="n">
-        <v>32.2112</v>
+        <v>0.4104</v>
       </c>
       <c r="G11" t="n">
-        <v>282.5347</v>
+        <v>435.2933</v>
       </c>
       <c r="H11" t="n">
-        <v>9.254</v>
+        <v>10.7876</v>
       </c>
       <c r="I11" t="n">
-        <v>4865.9506</v>
+        <v>5317.3474</v>
       </c>
       <c r="J11" t="n">
-        <v>10.7749</v>
+        <v>1.7081</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9859.0524</v>
-      </c>
-      <c r="M11" t="n">
-        <v>13.0208</v>
-      </c>
+        <v>12023.7334</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1094.9648</v>
+        <v>913.9226</v>
       </c>
       <c r="O11" t="n">
-        <v>572.5938</v>
+        <v>831.6507</v>
       </c>
       <c r="P11" t="n">
-        <v>5.1488</v>
+        <v>5.339</v>
       </c>
       <c r="Q11" t="n">
-        <v>745.5746</v>
+        <v>1115.3631</v>
       </c>
       <c r="R11" t="n">
-        <v>37.7814</v>
+        <v>34.0616</v>
       </c>
       <c r="S11" t="n">
-        <v>283.036</v>
+        <v>635.7426</v>
       </c>
       <c r="T11" t="n">
-        <v>10351.5202</v>
+        <v>12013.8743</v>
       </c>
       <c r="U11" t="n">
-        <v>5438.5442</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>6148.9979</v>
+      </c>
+      <c r="V11" t="n">
+        <v>46.3652</v>
+      </c>
       <c r="W11" t="n">
-        <v>142.0178</v>
+        <v>90.3541</v>
       </c>
       <c r="X11" t="n">
-        <v>603.4426</v>
+        <v>736.9129</v>
       </c>
       <c r="Y11" t="n">
-        <v>1547.2685</v>
+        <v>1631.9938</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.3611</v>
+        <v>7.3668</v>
       </c>
       <c r="AA11" t="n">
-        <v>762.6724</v>
+        <v>795.6523999999999</v>
       </c>
       <c r="AB11" t="n">
-        <v>2709.9317</v>
+        <v>4262.1524</v>
       </c>
       <c r="AC11" t="n">
-        <v>31.934</v>
+        <v>25.6149</v>
       </c>
       <c r="AD11" t="n">
-        <v>2426.2436</v>
+        <v>4004.1998</v>
       </c>
       <c r="AE11" t="n">
-        <v>120.9014</v>
+        <v>97.0497</v>
       </c>
       <c r="AF11" t="n">
-        <v>130.8533</v>
+        <v>135.2885</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.8509</v>
+        <v>7.3794</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.0736</v>
+        <v>12.1697</v>
       </c>
       <c r="AI11" t="n">
-        <v>452.4865</v>
+        <v>615.7382</v>
       </c>
       <c r="AJ11" t="n">
-        <v>91.98990000000001</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.6421</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>62.9632</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>5.5924</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1699.8855</v>
+        <v>2571.5801</v>
       </c>
       <c r="C12" t="n">
-        <v>109.407</v>
+        <v>64.267</v>
       </c>
       <c r="D12" t="n">
-        <v>339.497</v>
+        <v>653.7311</v>
       </c>
       <c r="E12" t="n">
-        <v>12648.0581</v>
+        <v>15974.5651</v>
       </c>
       <c r="F12" t="n">
-        <v>24.115</v>
+        <v>1.5789</v>
       </c>
       <c r="G12" t="n">
-        <v>319.258</v>
+        <v>441.3717</v>
       </c>
       <c r="H12" t="n">
-        <v>14.473</v>
+        <v>7.3626</v>
       </c>
       <c r="I12" t="n">
-        <v>5221.776</v>
+        <v>5322.6903</v>
       </c>
       <c r="J12" t="n">
-        <v>12.512</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.065</v>
-      </c>
+        <v>5.9034</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>10397.702</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.036</v>
-      </c>
+        <v>12940.6194</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1010.676</v>
+        <v>978.0503</v>
       </c>
       <c r="O12" t="n">
-        <v>660.417</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.344</v>
-      </c>
+        <v>842.4844000000001</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>736.51</v>
+        <v>1355.2669</v>
       </c>
       <c r="R12" t="n">
-        <v>8.550000000000001</v>
+        <v>16.0441</v>
       </c>
       <c r="S12" t="n">
-        <v>264.583</v>
+        <v>613.8628</v>
       </c>
       <c r="T12" t="n">
-        <v>10628.915</v>
+        <v>12902.3863</v>
       </c>
       <c r="U12" t="n">
-        <v>5882.194</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>6165.1748</v>
+      </c>
+      <c r="V12" t="n">
+        <v>47.5384</v>
+      </c>
       <c r="W12" t="n">
-        <v>106.324</v>
+        <v>84.9194</v>
       </c>
       <c r="X12" t="n">
-        <v>603.484</v>
+        <v>708.7886999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>1513.846</v>
+        <v>1678.679</v>
       </c>
       <c r="Z12" t="n">
-        <v>33.574</v>
+        <v>5.3046</v>
       </c>
       <c r="AA12" t="n">
-        <v>757.952</v>
+        <v>873.7632</v>
       </c>
       <c r="AB12" t="n">
-        <v>2908.311</v>
+        <v>5191.0473</v>
       </c>
       <c r="AC12" t="n">
-        <v>26.249</v>
+        <v>25.5974</v>
       </c>
       <c r="AD12" t="n">
-        <v>2656.985</v>
+        <v>4959.0891</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.272</v>
+        <v>124.9517</v>
       </c>
       <c r="AF12" t="n">
-        <v>118.805</v>
+        <v>81.4092</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.573</v>
+        <v>16.7771</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.015</v>
+        <v>28.7057</v>
       </c>
       <c r="AI12" t="n">
-        <v>472.086</v>
+        <v>505.5661</v>
       </c>
       <c r="AJ12" t="n">
-        <v>74.733</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>53.7198</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>11.6884</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1733.9</v>
+        <v>2734.8798</v>
       </c>
       <c r="C13" t="n">
-        <v>87.7</v>
+        <v>77.04510000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>323.3</v>
+        <v>634.6671</v>
       </c>
       <c r="E13" t="n">
-        <v>13529.5</v>
+        <v>16213.1546</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>0.7474</v>
       </c>
       <c r="G13" t="n">
-        <v>296.9</v>
+        <v>406.8366</v>
       </c>
       <c r="H13" t="n">
-        <v>11.8</v>
+        <v>32.279</v>
       </c>
       <c r="I13" t="n">
-        <v>5296.6</v>
+        <v>5324.8447</v>
       </c>
       <c r="J13" t="n">
-        <v>9.5</v>
+        <v>7.8655</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>11090.5</v>
+        <v>13234.4192</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>933.8</v>
+        <v>914.8464</v>
       </c>
       <c r="O13" t="n">
-        <v>666.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.1</v>
-      </c>
+        <v>990.8665</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>869.2</v>
+        <v>1260.1584</v>
       </c>
       <c r="R13" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6371</v>
       </c>
       <c r="S13" t="n">
-        <v>437.1</v>
+        <v>506.5302</v>
       </c>
       <c r="T13" t="n">
-        <v>11417</v>
+        <v>12995.8987</v>
       </c>
       <c r="U13" t="n">
-        <v>5963.3</v>
+        <v>6315.7112</v>
       </c>
       <c r="V13" t="n">
-        <v>81.2</v>
+        <v>61.9772</v>
       </c>
       <c r="W13" t="n">
-        <v>113</v>
+        <v>90.4396</v>
       </c>
       <c r="X13" t="n">
-        <v>667.6</v>
+        <v>724.6294</v>
       </c>
       <c r="Y13" t="n">
-        <v>1569.8</v>
+        <v>1718.577</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.2</v>
+        <v>29.4814</v>
       </c>
       <c r="AA13" t="n">
-        <v>760.5</v>
+        <v>866.1612</v>
       </c>
       <c r="AB13" t="n">
-        <v>3551.7</v>
+        <v>5509.6731</v>
       </c>
       <c r="AC13" t="n">
-        <v>25.8</v>
+        <v>24.6605</v>
       </c>
       <c r="AD13" t="n">
-        <v>3343</v>
+        <v>5264.2053</v>
       </c>
       <c r="AE13" t="n">
-        <v>101.4</v>
+        <v>142.7242</v>
       </c>
       <c r="AF13" t="n">
-        <v>81.5</v>
+        <v>78.083</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5847</v>
       </c>
       <c r="AH13" t="n">
-        <v>13.3</v>
+        <v>14.3754</v>
       </c>
       <c r="AI13" t="n">
-        <v>550.1</v>
+        <v>420.072</v>
       </c>
       <c r="AJ13" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
+        <v>50.4092</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2269.9652</v>
-      </c>
-      <c r="C14" t="n">
-        <v>72.7366</v>
-      </c>
-      <c r="D14" t="n">
-        <v>362.0349</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14771.0902</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="G14" t="n">
-        <v>435.2933</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10.7876</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5317.3474</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.7081</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>12023.7334</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>913.9226</v>
-      </c>
-      <c r="O14" t="n">
-        <v>831.6507</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5.339</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1115.3631</v>
-      </c>
-      <c r="R14" t="n">
-        <v>34.0616</v>
-      </c>
-      <c r="S14" t="n">
-        <v>635.7426</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12013.8743</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6148.9979</v>
-      </c>
-      <c r="V14" t="n">
-        <v>46.3652</v>
-      </c>
-      <c r="W14" t="n">
-        <v>90.3541</v>
-      </c>
-      <c r="X14" t="n">
-        <v>736.9129</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1631.9938</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>7.3668</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>795.6523999999999</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4262.1524</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>25.6149</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4004.1998</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>97.0497</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>135.2885</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7.3794</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12.1697</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>615.7382</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>62.9632</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>5.5924</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2571.5801</v>
-      </c>
-      <c r="C15" t="n">
-        <v>64.267</v>
-      </c>
-      <c r="D15" t="n">
-        <v>653.7311</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15974.5651</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.5789</v>
-      </c>
-      <c r="G15" t="n">
-        <v>441.3717</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7.3626</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5322.6903</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.9034</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>12940.6194</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>978.0503</v>
-      </c>
-      <c r="O15" t="n">
-        <v>842.4844000000001</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>1355.2669</v>
-      </c>
-      <c r="R15" t="n">
-        <v>16.0441</v>
-      </c>
-      <c r="S15" t="n">
-        <v>613.8628</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12902.3863</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6165.1748</v>
-      </c>
-      <c r="V15" t="n">
-        <v>47.5384</v>
-      </c>
-      <c r="W15" t="n">
-        <v>84.9194</v>
-      </c>
-      <c r="X15" t="n">
-        <v>708.7886999999999</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1678.679</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5.3046</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>873.7632</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>5191.0473</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>25.5974</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4959.0891</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>124.9517</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81.4092</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16.7771</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>28.7057</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>505.5661</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>53.7198</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>11.6884</v>
+        <v>13.5623</v>
       </c>
     </row>
   </sheetData>
